--- a/dumps/Stocks/Jio Financial Services Ltd(1).xlsx
+++ b/dumps/Stocks/Jio Financial Services Ltd(1).xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AG$64</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_8AB58EBB_FCE3_4958_97C9_05895B4912D1_.wvu.FilterData">'Trading History'!$A$4:$AR$89</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_ADD38381_2E15_4A00_9180_44F3FB865083_.wvu.FilterData">'Trading History'!$A$4:$AR$89</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8AB58EBB-FCE3-4958-97C9-05895B4912D1}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ADD38381-2E15-4A00-9180-44F3FB865083}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -777,8 +777,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:JIOFIN"", ""price"")"),268.0)</f>
-        <v>268</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:JIOFIN"", ""price"")"),270.2)</f>
+        <v>270.2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="C6" s="9">
         <f>sum('Trading History'!K4:K1003)</f>
-        <v>3374.160001</v>
+        <v>3506.160001</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="10" t="s">
@@ -909,7 +909,7 @@
       </c>
       <c r="I6" s="9">
         <f>sum('Trading History'!U4:U1003)</f>
-        <v>3374.160001</v>
+        <v>3506.160001</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="12" t="s">
@@ -987,7 +987,7 @@
       </c>
       <c r="C8" s="9">
         <f>sum('Trading History'!L4:L1003)</f>
-        <v>16080</v>
+        <v>16212</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10" t="s">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="I8" s="9">
         <f>sum('Trading History'!V4:V1003)</f>
-        <v>16080</v>
+        <v>16212</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="12" t="s">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C9" s="14">
         <f>Index!C6/(Index!C7*Index!$C$2)</f>
-        <v>0.209835821</v>
+        <v>0.2162694301</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="10" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I9" s="14">
         <f>IFERROR(Index!I6/(Index!I7*Index!$C$2), 0)</f>
-        <v>0.209835821</v>
+        <v>0.2162694301</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="12" t="s">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C10" s="15">
         <f>AVERAGE('Trading History'!N4:N1003)</f>
-        <v>0.5603504355</v>
+        <v>0.5801943923</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="10" t="s">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I10" s="15">
         <f>IFERROR(AVERAGE('Trading History'!X4:X1003), 0)</f>
-        <v>0.5603504355</v>
+        <v>0.5801943923</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C11" s="15">
         <f>AVERAGE('Trading History'!O4:O1003)</f>
-        <v>50.099644</v>
+        <v>52.299644</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="10" t="s">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="I11" s="15">
         <f>IFERROR(AVERAGE('Trading History'!Y4:Y1003), 0)</f>
-        <v>50.099644</v>
+        <v>52.299644</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
@@ -28312,7 +28312,7 @@
       </c>
       <c r="F5" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G5" s="44">
         <v>1660.92</v>
@@ -28328,11 +28328,11 @@
       </c>
       <c r="K5" s="47">
         <f t="shared" ref="K5:K11" si="1">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), (F5*D5)-(E5*D5), "")</f>
-        <v>226.830002</v>
+        <v>242.230002</v>
       </c>
       <c r="L5" s="48">
         <f t="shared" ref="L5:L11" si="2">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), F5*D5, "")</f>
-        <v>1876</v>
+        <v>1891.4</v>
       </c>
       <c r="M5" s="49">
         <f t="shared" ref="M5:M11" si="3">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -28340,11 +28340,11 @@
       </c>
       <c r="N5" s="50">
         <f t="shared" ref="N5:N11" si="4">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/(NOW()-A5),"")</f>
-        <v>0.2913996648</v>
+        <v>0.3091896775</v>
       </c>
       <c r="O5" s="51">
         <f t="shared" ref="O5:O11" si="5">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/D5,"")</f>
-        <v>32.404286</v>
+        <v>34.604286</v>
       </c>
       <c r="P5" s="47" t="str">
         <f t="shared" ref="P5:P11" si="6">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (F5*D5)-(E5*D5), "")</f>
@@ -28368,11 +28368,11 @@
       </c>
       <c r="U5" s="54">
         <f t="shared" ref="U5:U11" si="11">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (F5*D5)-(E5*D5), "")</f>
-        <v>226.830002</v>
+        <v>242.230002</v>
       </c>
       <c r="V5" s="54">
         <f t="shared" ref="V5:V11" si="12">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), F5*D5, "")</f>
-        <v>1876</v>
+        <v>1891.4</v>
       </c>
       <c r="W5" s="54">
         <f t="shared" ref="W5:W11" si="13">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
@@ -28380,11 +28380,11 @@
       </c>
       <c r="X5" s="55">
         <f t="shared" ref="X5:X11" si="14">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/(NOW()-A5),"")</f>
-        <v>0.2913996648</v>
+        <v>0.3091896775</v>
       </c>
       <c r="Y5" s="54">
         <f t="shared" ref="Y5:Y11" si="15">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/D5,"")</f>
-        <v>32.404286</v>
+        <v>34.604286</v>
       </c>
       <c r="Z5" s="51"/>
       <c r="AA5" s="47"/>
@@ -28418,7 +28418,7 @@
       </c>
       <c r="F6" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G6" s="44">
         <v>1423.63</v>
@@ -28434,11 +28434,11 @@
       </c>
       <c r="K6" s="47">
         <f t="shared" si="1"/>
-        <v>194.410002</v>
+        <v>207.610002</v>
       </c>
       <c r="L6" s="48">
         <f t="shared" si="2"/>
-        <v>1608</v>
+        <v>1621.2</v>
       </c>
       <c r="M6" s="49">
         <f t="shared" si="3"/>
@@ -28446,11 +28446,11 @@
       </c>
       <c r="N6" s="50">
         <f t="shared" si="4"/>
-        <v>0.2497509541</v>
+        <v>0.2649996658</v>
       </c>
       <c r="O6" s="51">
         <f t="shared" si="5"/>
-        <v>32.401667</v>
+        <v>34.601667</v>
       </c>
       <c r="P6" s="47" t="str">
         <f t="shared" si="6"/>
@@ -28474,11 +28474,11 @@
       </c>
       <c r="U6" s="54">
         <f t="shared" si="11"/>
-        <v>194.410002</v>
+        <v>207.610002</v>
       </c>
       <c r="V6" s="54">
         <f t="shared" si="12"/>
-        <v>1608</v>
+        <v>1621.2</v>
       </c>
       <c r="W6" s="54">
         <f t="shared" si="13"/>
@@ -28486,11 +28486,11 @@
       </c>
       <c r="X6" s="55">
         <f t="shared" si="14"/>
-        <v>0.2497509541</v>
+        <v>0.2649996658</v>
       </c>
       <c r="Y6" s="54">
         <f t="shared" si="15"/>
-        <v>32.401667</v>
+        <v>34.601667</v>
       </c>
       <c r="Z6" s="51"/>
       <c r="AA6" s="47"/>
@@ -28524,7 +28524,7 @@
       </c>
       <c r="F7" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G7" s="44">
         <v>711.82</v>
@@ -28540,11 +28540,11 @@
       </c>
       <c r="K7" s="47">
         <f t="shared" si="1"/>
-        <v>97.209999</v>
+        <v>103.809999</v>
       </c>
       <c r="L7" s="48">
         <f t="shared" si="2"/>
-        <v>804</v>
+        <v>810.6</v>
       </c>
       <c r="M7" s="49">
         <f t="shared" si="3"/>
@@ -28552,11 +28552,11 @@
       </c>
       <c r="N7" s="50">
         <f t="shared" si="4"/>
-        <v>0.1248818978</v>
+        <v>0.1325062125</v>
       </c>
       <c r="O7" s="51">
         <f t="shared" si="5"/>
-        <v>32.403333</v>
+        <v>34.603333</v>
       </c>
       <c r="P7" s="47" t="str">
         <f t="shared" si="6"/>
@@ -28580,11 +28580,11 @@
       </c>
       <c r="U7" s="54">
         <f t="shared" si="11"/>
-        <v>97.209999</v>
+        <v>103.809999</v>
       </c>
       <c r="V7" s="54">
         <f t="shared" si="12"/>
-        <v>804</v>
+        <v>810.6</v>
       </c>
       <c r="W7" s="54">
         <f t="shared" si="13"/>
@@ -28592,11 +28592,11 @@
       </c>
       <c r="X7" s="55">
         <f t="shared" si="14"/>
-        <v>0.1248818978</v>
+        <v>0.1325062125</v>
       </c>
       <c r="Y7" s="54">
         <f t="shared" si="15"/>
-        <v>32.403333</v>
+        <v>34.603333</v>
       </c>
       <c r="Z7" s="51"/>
       <c r="AA7" s="47"/>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="F8" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G8" s="44">
         <v>949.07</v>
@@ -28646,11 +28646,11 @@
       </c>
       <c r="K8" s="47">
         <f t="shared" si="1"/>
-        <v>129.59</v>
+        <v>138.39</v>
       </c>
       <c r="L8" s="48">
         <f t="shared" si="2"/>
-        <v>1072</v>
+        <v>1080.8</v>
       </c>
       <c r="M8" s="49">
         <f t="shared" si="3"/>
@@ -28658,11 +28658,11 @@
       </c>
       <c r="N8" s="50">
         <f t="shared" si="4"/>
-        <v>0.1664792233</v>
+        <v>0.1766451683</v>
       </c>
       <c r="O8" s="51">
         <f t="shared" si="5"/>
-        <v>32.3975</v>
+        <v>34.5975</v>
       </c>
       <c r="P8" s="47" t="str">
         <f t="shared" si="6"/>
@@ -28686,11 +28686,11 @@
       </c>
       <c r="U8" s="54">
         <f t="shared" si="11"/>
-        <v>129.59</v>
+        <v>138.39</v>
       </c>
       <c r="V8" s="54">
         <f t="shared" si="12"/>
-        <v>1072</v>
+        <v>1080.8</v>
       </c>
       <c r="W8" s="54">
         <f t="shared" si="13"/>
@@ -28698,11 +28698,11 @@
       </c>
       <c r="X8" s="55">
         <f t="shared" si="14"/>
-        <v>0.1664792233</v>
+        <v>0.1766451683</v>
       </c>
       <c r="Y8" s="54">
         <f t="shared" si="15"/>
-        <v>32.3975</v>
+        <v>34.5975</v>
       </c>
       <c r="Z8" s="51"/>
       <c r="AA8" s="47"/>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="F9" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G9" s="44">
         <v>4386.85</v>
@@ -28755,11 +28755,11 @@
       </c>
       <c r="K9" s="47">
         <f t="shared" si="1"/>
-        <v>468.070002</v>
+        <v>507.670002</v>
       </c>
       <c r="L9" s="48">
         <f t="shared" si="2"/>
-        <v>4824</v>
+        <v>4863.6</v>
       </c>
       <c r="M9" s="49">
         <f t="shared" si="3"/>
@@ -28767,11 +28767,11 @@
       </c>
       <c r="N9" s="50">
         <f t="shared" si="4"/>
-        <v>0.5982371646</v>
+        <v>0.6447135689</v>
       </c>
       <c r="O9" s="51">
         <f t="shared" si="5"/>
-        <v>26.003889</v>
+        <v>28.203889</v>
       </c>
       <c r="P9" s="47" t="str">
         <f t="shared" si="6"/>
@@ -28795,11 +28795,11 @@
       </c>
       <c r="U9" s="54">
         <f t="shared" si="11"/>
-        <v>468.070002</v>
+        <v>507.670002</v>
       </c>
       <c r="V9" s="54">
         <f t="shared" si="12"/>
-        <v>4824</v>
+        <v>4863.6</v>
       </c>
       <c r="W9" s="54">
         <f t="shared" si="13"/>
@@ -28807,11 +28807,11 @@
       </c>
       <c r="X9" s="55">
         <f t="shared" si="14"/>
-        <v>0.5982371646</v>
+        <v>0.6447135689</v>
       </c>
       <c r="Y9" s="54">
         <f t="shared" si="15"/>
-        <v>26.003889</v>
+        <v>28.203889</v>
       </c>
       <c r="Z9" s="51"/>
       <c r="AA9" s="47"/>
@@ -28848,7 +28848,7 @@
       </c>
       <c r="F10" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G10" s="44">
         <v>2281.06</v>
@@ -28864,11 +28864,11 @@
       </c>
       <c r="K10" s="47">
         <f t="shared" si="1"/>
-        <v>414.96</v>
+        <v>436.96</v>
       </c>
       <c r="L10" s="48">
         <f t="shared" si="2"/>
-        <v>2680</v>
+        <v>2702</v>
       </c>
       <c r="M10" s="49">
         <f t="shared" si="3"/>
@@ -28876,11 +28876,11 @@
       </c>
       <c r="N10" s="50">
         <f t="shared" si="4"/>
-        <v>0.5171385952</v>
+        <v>0.5411705249</v>
       </c>
       <c r="O10" s="51">
         <f t="shared" si="5"/>
-        <v>41.496</v>
+        <v>43.696</v>
       </c>
       <c r="P10" s="47" t="str">
         <f t="shared" si="6"/>
@@ -28904,11 +28904,11 @@
       </c>
       <c r="U10" s="54">
         <f t="shared" si="11"/>
-        <v>414.96</v>
+        <v>436.96</v>
       </c>
       <c r="V10" s="54">
         <f t="shared" si="12"/>
-        <v>2680</v>
+        <v>2702</v>
       </c>
       <c r="W10" s="54">
         <f t="shared" si="13"/>
@@ -28916,11 +28916,11 @@
       </c>
       <c r="X10" s="55">
         <f t="shared" si="14"/>
-        <v>0.5171385952</v>
+        <v>0.5411705249</v>
       </c>
       <c r="Y10" s="54">
         <f t="shared" si="15"/>
-        <v>41.496</v>
+        <v>43.696</v>
       </c>
       <c r="Z10" s="51"/>
       <c r="AA10" s="47"/>
@@ -28957,7 +28957,7 @@
       </c>
       <c r="F11" s="43">
         <f>Index!$C$2</f>
-        <v>268</v>
+        <v>270.2</v>
       </c>
       <c r="G11" s="44">
         <v>1382.62</v>
@@ -28973,11 +28973,11 @@
       </c>
       <c r="K11" s="47">
         <f t="shared" si="1"/>
-        <v>1843.089996</v>
+        <v>1869.489996</v>
       </c>
       <c r="L11" s="48">
         <f t="shared" si="2"/>
-        <v>3216</v>
+        <v>3242.4</v>
       </c>
       <c r="M11" s="49">
         <f t="shared" si="3"/>
@@ -28985,11 +28985,11 @@
       </c>
       <c r="N11" s="50">
         <f t="shared" si="4"/>
-        <v>1.974565549</v>
+        <v>1.992135928</v>
       </c>
       <c r="O11" s="51">
         <f t="shared" si="5"/>
-        <v>153.590833</v>
+        <v>155.790833</v>
       </c>
       <c r="P11" s="47" t="str">
         <f t="shared" si="6"/>
@@ -29013,11 +29013,11 @@
       </c>
       <c r="U11" s="54">
         <f t="shared" si="11"/>
-        <v>1843.089996</v>
+        <v>1869.489996</v>
       </c>
       <c r="V11" s="54">
         <f t="shared" si="12"/>
-        <v>3216</v>
+        <v>3242.4</v>
       </c>
       <c r="W11" s="54">
         <f t="shared" si="13"/>
@@ -29025,11 +29025,11 @@
       </c>
       <c r="X11" s="55">
         <f t="shared" si="14"/>
-        <v>1.974565549</v>
+        <v>1.992135928</v>
       </c>
       <c r="Y11" s="54">
         <f t="shared" si="15"/>
-        <v>153.590833</v>
+        <v>155.790833</v>
       </c>
       <c r="Z11" s="51"/>
       <c r="AA11" s="47"/>
@@ -46193,7 +46193,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AG$64"/>
   <customSheetViews>
-    <customSheetView guid="{8AB58EBB-FCE3-4958-97C9-05895B4912D1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ADD38381-2E15-4A00-9180-44F3FB865083}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AR$89"/>
     </customSheetView>
   </customSheetViews>
